--- a/newdata.xlsx
+++ b/newdata.xlsx
@@ -2741,11 +2741,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
